--- a/detectors/apd/G14858-Series.xlsx
+++ b/detectors/apd/G14858-Series.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="qe_vs_wavelength">Sheet1!$A$2:$B$72</definedName>
+    <definedName name="qe_vs_wavelength">Sheet1!$A$2:$B$97</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -361,17 +361,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
